--- a/01-Bases de données/Conception Base de Donnees/Exercice Bibliotheque/DonnéesBibliotheque.xlsx
+++ b/01-Bases de données/Conception Base de Donnees/Exercice Bibliotheque/DonnéesBibliotheque.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Exercices\CDA\01-Bases de données\Conception Base de Donnees\Exercice Bibliotheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-08\CDA\01-Bases de données\Conception Base de Donnees\Exercice Bibliotheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92095A17-6989-4322-8F28-8A6C5642988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{339DD8C0-29B9-4DCE-A22C-4B05C2FFEF27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Abonnes</t>
   </si>
@@ -331,25 +330,24 @@
   </si>
   <si>
     <t>Libelle du genre</t>
+  </si>
+  <si>
+    <t>Catalogues</t>
+  </si>
+  <si>
+    <t>Code catalogue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +361,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,9 +507,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,94 +572,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44240F-2146-4259-BFDE-C407983CC756}">
-  <dimension ref="B4:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,857 +952,935 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="5" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>1001</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="4">
         <v>18334</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>615487856</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>44256</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>1002</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>25783</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <v>689654712</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>44206</v>
       </c>
-      <c r="J7" s="8">
-        <v>3</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>1003</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>37537</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <v>789654123</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>44230</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="L8" s="8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
         <v>1004</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <v>28920</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <v>698458912</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>44252</v>
       </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-      <c r="L9" s="8">
-        <v>4</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>1005</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>28651</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>632154878</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>44267</v>
       </c>
-      <c r="J10" s="8">
-        <v>4</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>5</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>1006</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>30621</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <v>321569874</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <v>44270</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>27593</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>328956432</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="4">
         <v>44294</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>27023</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="5">
         <v>321457898</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <v>44326</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>41225</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="5">
         <v>328956421</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="4">
         <v>44353</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="13" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="I17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="L17" s="15" t="s">
+      <c r="J17" s="25"/>
+      <c r="L17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>43781</v>
       </c>
-      <c r="E19" s="8">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
         <v>10</v>
       </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>50</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>43827</v>
       </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="I20" s="8">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="3">
         <v>11</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="3">
         <v>2</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
         <v>28</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>43827</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="I21" s="8">
-        <v>3</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="G21" s="3"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>12</v>
       </c>
-      <c r="L21" s="8">
-        <v>3</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
         <v>38</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <v>43842</v>
       </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="I22" s="8">
-        <v>4</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>13</v>
       </c>
-      <c r="L22" s="8">
-        <v>4</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>43842</v>
       </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="I23" s="8">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3">
         <v>5</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="3">
         <v>14</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="3">
         <v>5</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="B24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>98</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="4">
         <v>44040</v>
       </c>
-      <c r="E24" s="8">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>3</v>
-      </c>
-      <c r="G24" s="8"/>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="3">
         <v>7</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>125</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>44280</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8"/>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="28" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="31" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="I28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="L28" s="27" t="s">
+      <c r="J28" s="18"/>
+      <c r="L28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N29" s="30" t="s">
+      <c r="N29" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="3">
         <v>2</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="3">
         <v>2</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8">
-        <v>4</v>
-      </c>
-      <c r="D32" s="8">
-        <v>3</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="8">
-        <v>3</v>
-      </c>
-      <c r="J32" s="8" t="s">
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="8">
-        <v>3</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="L32" s="3">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="8"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="8">
-        <v>4</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="I33" s="3">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="8">
-        <v>4</v>
-      </c>
-      <c r="M33" s="8" t="s">
+      <c r="L33" s="3">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D34" s="8">
-        <v>4</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="3">
         <v>5</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="3">
         <v>5</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="N34" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="3">
         <v>6</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="3">
         <v>6</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="3">
         <v>6</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="B36" s="3">
         <v>7</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="3">
         <v>6</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="3">
         <v>2</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="3">
         <v>8</v>
       </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="40" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I40" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I44" s="3">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I45" s="3">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I47" s="3">
+        <v>6</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1806</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B28:G28"/>
+  <mergeCells count="9">
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="B4:J4"/>
@@ -1790,6 +1888,7 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
